--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子。【詳細参照】</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -630,10 +630,10 @@
     <t>radiology</t>
   </si>
   <si>
-    <t>サービスカテゴリー。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology.id</t>
@@ -893,7 +893,7 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード。【詳細参照】</t>
+    <t>診断レポートを説明するコードまたは名前。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -1007,7 +1007,7 @@
 </t>
   </si>
   <si>
-    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
+    <t>診断レポートの対象患者に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -1043,7 +1043,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -1079,7 +1079,7 @@
 </t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
+    <t>診断レポートの作成日時。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時。【詳細参照】</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -1149,7 +1149,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに責任をもつ診断サービス（部門）/担当者。【詳細参照】</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -1182,7 +1182,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者。【詳細参照】</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -1280,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディア。【詳細参照】</t>
+    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -1365,7 +1365,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈/インプレッション）。【詳細参照】</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）。</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1387,7 +1387,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1417,7 +1417,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体。【詳細参照】</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -553,7 +553,7 @@
     <t>診断レポートの状態。【詳細参照】</t>
   </si>
   <si>
-    <t>診断レポートの状態</t>
+    <t>診断レポートの状態。以下のいずれかが設定される。registered | partial | preliminary | final | amended | corrected | appended | cancelled | entered-in-error | unknown</t>
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
@@ -633,7 +633,7 @@
     <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology.id</t>
@@ -884,6 +884,63 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub</t>
+  </si>
+  <si>
+    <t>radiology_sub</t>
+  </si>
+  <si>
+    <t>レポート対象のモダリティを示すコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポート対象のモダリティを示すコード。放射線を表す第1コードのLP29684-5に続くサブカテゴリコードとして第2コード以下に保持される。複数のモダリティの組み合わせを許容するため、コードの列挙を許容する。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_RadiologyModality_VS</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.system</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.version</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.code</t>
+  </si>
+  <si>
+    <t>DICOMのモダリティコードを指定</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.display</t>
+  </si>
+  <si>
+    <t>DICOMのモダリティコードの意味を記載（例: 超音波検査）</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.coding.userSelected</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:radiology_sub.text</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -1752,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4785,18 +4842,20 @@
         <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4817,7 +4876,7 @@
         <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4843,13 +4902,11 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4867,13 +4924,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -4882,24 +4939,24 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5008,10 +5065,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5122,10 +5179,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5197,14 +5254,16 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>216</v>
@@ -5236,14 +5295,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5261,23 +5318,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5325,28 +5378,28 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5354,21 +5407,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5380,15 +5433,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5425,31 +5480,31 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5466,21 +5521,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5489,27 +5544,29 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>81</v>
@@ -5539,40 +5596,40 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5580,10 +5637,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5591,7 +5648,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5606,26 +5663,24 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>81</v>
@@ -5667,7 +5722,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5685,10 +5740,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5696,10 +5751,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5722,18 +5777,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5781,7 +5836,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5799,10 +5854,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5810,10 +5865,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5836,24 +5891,24 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>81</v>
@@ -5895,7 +5950,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5913,10 +5968,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5924,10 +5979,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5950,17 +6005,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6009,7 +6066,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6027,10 +6084,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6038,10 +6095,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6064,19 +6121,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6125,7 +6182,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6200,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6154,18 +6211,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6180,20 +6237,18 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6217,13 +6272,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6241,10 +6296,10 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6256,28 +6311,28 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6287,29 +6342,25 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6357,7 +6408,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6369,38 +6420,38 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6409,23 +6460,21 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6461,65 +6510,65 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -6528,19 +6577,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6577,25 +6626,23 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6604,28 +6651,30 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6635,7 +6684,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -6644,19 +6693,19 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6705,13 +6754,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6723,57 +6772,53 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6821,43 +6866,43 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6867,29 +6912,27 @@
         <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6925,19 +6968,19 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6949,27 +6992,27 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6977,10 +7020,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6989,29 +7032,29 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>378</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>379</v>
+        <v>228</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>81</v>
@@ -7053,13 +7096,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>230</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7071,10 +7114,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>231</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7082,21 +7125,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7105,23 +7148,21 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>236</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7169,13 +7210,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7187,10 +7228,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>240</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7198,10 +7239,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7212,36 +7253,36 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>391</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>81</v>
@@ -7283,13 +7324,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7301,10 +7342,10 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>249</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7312,21 +7353,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7338,19 +7379,17 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>252</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7399,28 +7438,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>257</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7428,10 +7467,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7451,19 +7490,23 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7511,7 +7554,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7523,16 +7566,16 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7540,21 +7583,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7563,21 +7606,23 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7625,28 +7670,28 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7654,45 +7699,45 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>145</v>
+        <v>339</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7741,43 +7786,43 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7793,22 +7838,22 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7857,7 +7902,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7872,32 +7917,32 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>90</v>
@@ -7912,18 +7957,20 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -7971,10 +8018,10 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>90</v>
@@ -7986,28 +8033,28 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8023,22 +8070,22 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8087,7 +8134,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8105,25 +8152,25 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8133,27 +8180,29 @@
         <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8177,13 +8226,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8201,7 +8250,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8216,28 +8265,28 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8253,22 +8302,22 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8317,7 +8366,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8332,20 +8381,1400 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="N67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8355,7 +9784,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子。【詳細参照】</t>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子【詳細参照】</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -630,7 +630,7 @@
     <t>radiology</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
@@ -950,7 +950,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを説明するコードまたは名前。【詳細参照】</t>
+    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報。【詳細参照】</t>
+    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報。【詳細参照】</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成日時。【詳細参照】</t>
+    <t>診断レポートの作成日時【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -1173,7 +1173,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時。【詳細参照】</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -1206,7 +1206,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。【詳細参照】</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -1239,7 +1239,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。【詳細参照】</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -1313,7 +1313,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。【詳細参照】</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -1337,7 +1337,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -1422,7 +1422,7 @@
 </t>
   </si>
   <si>
-    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）。</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1444,7 +1444,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。【詳細参照】</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1474,7 +1474,7 @@
 </t>
   </si>
   <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。【詳細参照】</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -269,7 +269,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール。【詳細参照】</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール【詳細参照】</t>
   </si>
   <si>
     <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。【詳細参照】</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される【詳細参照】</t>
   </si>
   <si>
     <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>レポート作成サービスに対する要求の詳細。【詳細参照】</t>
+    <t>レポート作成サービスに対する要求の詳細【詳細参照】</t>
   </si>
   <si>
     <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
@@ -550,7 +550,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>診断レポートの状態。【詳細参照】</t>
+    <t>診断レポートの状態【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの状態。以下のいずれかが設定される。registered | partial | preliminary | final | amended | corrected | appended | cancelled | entered-in-error | unknown</t>
@@ -596,7 +596,7 @@
 </t>
   </si>
   <si>
-    <t>レポートを作成した分野を分類するコード。【詳細参照】</t>
+    <t>レポートを作成した分野を分類するコード【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
@@ -892,7 +892,7 @@
     <t>radiology_sub</t>
   </si>
   <si>
-    <t>レポート対象のモダリティを示すコード。【詳細参照】</t>
+    <t>レポート対象のモダリティを示すコード【詳細参照】</t>
   </si>
   <si>
     <t>レポート対象のモダリティを示すコード。放射線を表す第1コードのLP29684-5に続くサブカテゴリコードとして第2コード以下に保持される。複数のモダリティの組み合わせを許容するため、コードの列挙を許容する。</t>
@@ -996,7 +996,7 @@
     <t>radiologyReportCode</t>
   </si>
   <si>
-    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している【詳細参照】</t>
   </si>
   <si>
     <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
